--- a/mallar/import/SM 2024/extraktion_2_20240924_for_SM2024.xlsx
+++ b/mallar/import/SM 2024/extraktion_2_20240924_for_SM2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\SM 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7949863-AB1B-4786-A07C-466883431B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F173E2D-7048-485C-A1A2-BDA13EDA5CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="728" activeTab="2" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="728" activeTab="8" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="startlistafelaktig" sheetId="10" r:id="rId1"/>
@@ -1990,12 +1990,6 @@
     <t>Red 15</t>
   </si>
   <si>
-    <t>Green 24</t>
-  </si>
-  <si>
-    <t>Green 25</t>
-  </si>
-  <si>
     <t>Donovan2</t>
   </si>
   <si>
@@ -2066,9 +2060,6 @@
     <t>Red 11</t>
   </si>
   <si>
-    <t>Green 23</t>
-  </si>
-  <si>
     <t>Linnea_Pedersen</t>
   </si>
   <si>
@@ -2078,54 +2069,6 @@
     <t>Startordning: Emilia, Fanny, Ebba</t>
   </si>
   <si>
-    <t>Green 1</t>
-  </si>
-  <si>
-    <t>Green 7</t>
-  </si>
-  <si>
-    <t>Green 2</t>
-  </si>
-  <si>
-    <t>Green 3</t>
-  </si>
-  <si>
-    <t>Green 4</t>
-  </si>
-  <si>
-    <t>Green 5</t>
-  </si>
-  <si>
-    <t>Green 10</t>
-  </si>
-  <si>
-    <t>Green 11</t>
-  </si>
-  <si>
-    <t>Green 12</t>
-  </si>
-  <si>
-    <t>Green 13</t>
-  </si>
-  <si>
-    <t>Green 14</t>
-  </si>
-  <si>
-    <t>Green 15</t>
-  </si>
-  <si>
-    <t>Green 16</t>
-  </si>
-  <si>
-    <t>Green 17</t>
-  </si>
-  <si>
-    <t>Green 18</t>
-  </si>
-  <si>
-    <t>Green 19</t>
-  </si>
-  <si>
     <t>Red 1</t>
   </si>
   <si>
@@ -2174,18 +2117,6 @@
     <t>Red 23</t>
   </si>
   <si>
-    <t>Green 20</t>
-  </si>
-  <si>
-    <t>Green 21</t>
-  </si>
-  <si>
-    <t>Green 22</t>
-  </si>
-  <si>
-    <t>Green 30</t>
-  </si>
-  <si>
     <t>Gold 20</t>
   </si>
   <si>
@@ -2208,6 +2139,75 @@
   </si>
   <si>
     <t>Startordning: Maja, Esmeralda</t>
+  </si>
+  <si>
+    <t>Gr 1</t>
+  </si>
+  <si>
+    <t>Gr 2</t>
+  </si>
+  <si>
+    <t>Gr 3</t>
+  </si>
+  <si>
+    <t>Gr 4</t>
+  </si>
+  <si>
+    <t>Gr 5</t>
+  </si>
+  <si>
+    <t>Gr 24</t>
+  </si>
+  <si>
+    <t>Gr 7</t>
+  </si>
+  <si>
+    <t>Gr 25</t>
+  </si>
+  <si>
+    <t>Gr 10</t>
+  </si>
+  <si>
+    <t>Gr 11</t>
+  </si>
+  <si>
+    <t>Gr 12</t>
+  </si>
+  <si>
+    <t>Gr 13</t>
+  </si>
+  <si>
+    <t>Gr 14</t>
+  </si>
+  <si>
+    <t>Gr 15</t>
+  </si>
+  <si>
+    <t>Gr 16</t>
+  </si>
+  <si>
+    <t>Gr 17</t>
+  </si>
+  <si>
+    <t>Gr 18</t>
+  </si>
+  <si>
+    <t>Gr 19</t>
+  </si>
+  <si>
+    <t>Gr 20</t>
+  </si>
+  <si>
+    <t>Gr 21</t>
+  </si>
+  <si>
+    <t>Gr 22</t>
+  </si>
+  <si>
+    <t>Gr 23</t>
+  </si>
+  <si>
+    <t>Gr 30</t>
   </si>
 </sst>
 </file>
@@ -4687,7 +4687,7 @@
         <v>306380</v>
       </c>
       <c r="G50" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -19820,7 +19820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B3B0E3-2027-4083-B582-AAB0C4C3F786}">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -20342,7 +20342,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="N8">
         <v>51513</v>
@@ -20380,7 +20380,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N9">
         <v>177357</v>
@@ -20409,7 +20409,7 @@
         <v>99294359</v>
       </c>
       <c r="G10" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J10" s="6">
         <v>223</v>
@@ -20418,7 +20418,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N10" s="6">
         <v>40406</v>
@@ -20456,7 +20456,7 @@
         <v>4</v>
       </c>
       <c r="L11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="N11">
         <v>106236</v>
@@ -20500,7 +20500,7 @@
         <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="N12">
         <v>107006</v>
@@ -20544,7 +20544,7 @@
         <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="N13">
         <v>128776</v>
@@ -20588,7 +20588,7 @@
         <v>115</v>
       </c>
       <c r="L14" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="N14">
         <v>22011</v>
@@ -20617,7 +20617,7 @@
         <v>99294359</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J15" s="6">
         <v>223</v>
@@ -20626,7 +20626,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N15" s="6">
         <v>74165</v>
@@ -20781,7 +20781,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="N19">
         <v>101407</v>
@@ -20825,7 +20825,7 @@
         <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N20" s="6">
         <v>123786</v>
@@ -20901,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N22">
         <v>155892</v>
@@ -21012,7 +21012,7 @@
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="N25">
         <v>107961</v>
@@ -21091,7 +21091,7 @@
         <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="N27">
         <v>108087</v>
@@ -21129,7 +21129,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="N28">
         <v>69830</v>
@@ -21158,7 +21158,7 @@
         <v>99293760</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H29">
         <v>306380</v>
@@ -21173,7 +21173,7 @@
         <v>4</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="N29">
         <v>120827</v>
@@ -21217,7 +21217,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="N30">
         <v>134608</v>
@@ -21364,7 +21364,7 @@
         <v>306380</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J34" s="6">
         <v>223</v>
@@ -21373,7 +21373,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N34" s="6">
         <v>101580</v>
@@ -21411,7 +21411,7 @@
         <v>114</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="N35">
         <v>140835</v>
@@ -21476,7 +21476,7 @@
         <v>99312178</v>
       </c>
       <c r="G37" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="J37">
         <v>594</v>
@@ -21485,7 +21485,7 @@
         <v>114</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="N37">
         <v>177919</v>
@@ -21514,7 +21514,7 @@
         <v>99312178</v>
       </c>
       <c r="G38" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="J38">
         <v>594</v>
@@ -21549,7 +21549,7 @@
         <v>99312178</v>
       </c>
       <c r="G39" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="J39">
         <v>594</v>
@@ -21584,7 +21584,7 @@
         <v>99293760</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H40">
         <v>306380</v>
@@ -21599,7 +21599,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="N40">
         <v>145224</v>
@@ -21757,7 +21757,7 @@
         <v>116</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="N44" s="6">
         <v>172812</v>
@@ -21842,7 +21842,7 @@
         <v>8</v>
       </c>
       <c r="L46" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="N46">
         <v>178539</v>
@@ -22041,7 +22041,7 @@
         <v>99306380</v>
       </c>
       <c r="G51" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H51" s="6">
         <v>279357</v>
@@ -22056,7 +22056,7 @@
         <v>4</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="N51" s="6">
         <v>172585</v>
@@ -22214,7 +22214,7 @@
         <v>8</v>
       </c>
       <c r="L55" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="N55">
         <v>178209</v>
@@ -22243,7 +22243,7 @@
         <v>99306380</v>
       </c>
       <c r="G56" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J56" s="6">
         <v>223</v>
@@ -22252,7 +22252,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="N56" s="6">
         <v>169475</v>
@@ -22369,7 +22369,7 @@
         <v>306380</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J59" s="6">
         <v>869</v>
@@ -22378,7 +22378,7 @@
         <v>4</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N59">
         <v>99120827</v>
@@ -22422,7 +22422,7 @@
         <v>8</v>
       </c>
       <c r="L60" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="N60">
         <v>178569</v>
@@ -22498,7 +22498,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="N62">
         <v>99134608</v>
@@ -22536,7 +22536,7 @@
         <v>11</v>
       </c>
       <c r="L63" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="N63">
         <v>164698</v>
@@ -22559,13 +22559,13 @@
         <v>99956622</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F64">
         <v>99316201</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J64">
         <v>1330</v>
@@ -22574,7 +22574,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="N64">
         <v>50023</v>
@@ -22597,13 +22597,13 @@
         <v>99956622</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F65">
         <v>99316201</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J65">
         <v>1330</v>
@@ -22612,7 +22612,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="N65">
         <v>164696</v>
@@ -23075,7 +23075,7 @@
         <v>99956622</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -23489,7 +23489,7 @@
         <v>99306380</v>
       </c>
       <c r="B30" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -23497,7 +23497,7 @@
         <v>99316201</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -23505,7 +23505,7 @@
         <v>99294359</v>
       </c>
       <c r="B32" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -23513,7 +23513,7 @@
         <v>99293760</v>
       </c>
       <c r="B33" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -23529,7 +23529,7 @@
         <v>99312178</v>
       </c>
       <c r="B35" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -23684,8 +23684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5152B9-B788-4BDE-A1B2-C618945E4F4F}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23765,7 +23765,7 @@
         <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>696</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
@@ -23798,7 +23798,7 @@
         <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>697</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -23831,7 +23831,7 @@
         <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -23842,7 +23842,7 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -23853,7 +23853,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>663</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -23864,7 +23864,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -23875,7 +23875,7 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -23886,7 +23886,7 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>631</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -23897,7 +23897,7 @@
         <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -23916,7 +23916,7 @@
         <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>632</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -23927,7 +23927,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>666</v>
+        <v>689</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -23938,7 +23938,7 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>667</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -23949,7 +23949,7 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>668</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -23960,7 +23960,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -23971,7 +23971,7 @@
         <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -23982,7 +23982,7 @@
         <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -23993,7 +23993,7 @@
         <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -24004,7 +24004,7 @@
         <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>673</v>
+        <v>696</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -24015,7 +24015,7 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>674</v>
+        <v>697</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -24026,7 +24026,7 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>675</v>
+        <v>698</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -24037,7 +24037,7 @@
         <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -24048,7 +24048,7 @@
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -24059,7 +24059,7 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -24070,7 +24070,7 @@
         <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -24081,7 +24081,7 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -24092,7 +24092,7 @@
         <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -24103,7 +24103,7 @@
         <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -24114,7 +24114,7 @@
         <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -24125,7 +24125,7 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -24136,7 +24136,7 @@
         <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -24147,7 +24147,7 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -24202,7 +24202,7 @@
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -24213,7 +24213,7 @@
         <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -24224,7 +24224,7 @@
         <v>178</v>
       </c>
       <c r="C48" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -24235,7 +24235,7 @@
         <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -24246,7 +24246,7 @@
         <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -24257,7 +24257,7 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -24268,7 +24268,7 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -24279,7 +24279,7 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -24290,7 +24290,7 @@
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -24301,7 +24301,7 @@
         <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -24360,7 +24360,7 @@
         <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -24395,7 +24395,7 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
@@ -24587,10 +24587,10 @@
         <v>99134608</v>
       </c>
       <c r="B90" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C90" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -24598,7 +24598,7 @@
         <v>99120827</v>
       </c>
       <c r="B91" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C91" t="s">
         <v>624</v>
